--- a/encodingTimeLargeSelectivityLargeMem.xlsx
+++ b/encodingTimeLargeSelectivityLargeMem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA628AB7-62DF-4912-A38B-0E4E39CEC53B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C34B6-EC80-4CB2-8548-4AE7DFD91EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="13845" windowHeight="11385" activeTab="3" xr2:uid="{F4F57719-118F-45E0-A924-38EBED8242CA}"/>
+    <workbookView xWindow="465" yWindow="0" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{F4F57719-118F-45E0-A924-38EBED8242CA}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>RLE</t>
   </si>
@@ -56,26 +56,14 @@
   <si>
     <t>HYBRID_COLUMNAR</t>
   </si>
-  <si>
-    <t>cardinality: 10</t>
-  </si>
-  <si>
-    <t>cardinality: 100</t>
-  </si>
-  <si>
-    <t>cardinality: 1000</t>
-  </si>
-  <si>
-    <t>cardinality: 10000</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -109,8 +97,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -163,8 +151,21 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>[</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>uniform</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -242,24 +243,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -328,24 +330,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -414,24 +417,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -500,24 +504,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -586,24 +591,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -672,24 +678,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -764,24 +771,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1160,7 +1168,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [normal]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1239,24 +1247,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1325,24 +1334,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1411,24 +1421,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1497,24 +1508,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1583,24 +1595,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1669,24 +1682,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1761,24 +1775,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2156,7 +2171,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [exponential 1]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2235,24 +2250,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2321,24 +2337,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2407,24 +2424,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2493,24 +2511,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2579,24 +2598,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2665,24 +2685,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2757,24 +2778,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3152,7 +3174,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [exponential</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3231,24 +3261,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3317,24 +3348,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3403,24 +3435,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3489,24 +3522,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3575,24 +3609,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3661,24 +3696,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3753,24 +3789,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6749,7 +6786,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6762,17 +6799,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6905,7 +6942,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6918,17 +6955,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7061,7 +7098,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7074,17 +7111,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7217,7 +7254,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7230,17 +7267,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/encodingTimeLargeSelectivityLargeMem.xlsx
+++ b/encodingTimeLargeSelectivityLargeMem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C34B6-EC80-4CB2-8548-4AE7DFD91EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943A538A-A7C0-45F9-A481-68AF34D59D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="0" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{F4F57719-118F-45E0-A924-38EBED8242CA}"/>
+    <workbookView minimized="1" xWindow="465" yWindow="0" windowWidth="7500" windowHeight="6000" xr2:uid="{F4F57719-118F-45E0-A924-38EBED8242CA}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -6785,8 +6785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C4DFF0-3028-41E1-B339-AFF864DC7575}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7098,7 +7098,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7253,7 +7253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059F7549-FB4C-438F-81C9-EE3402230759}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>

--- a/encodingTimeLargeSelectivityLargeMem.xlsx
+++ b/encodingTimeLargeSelectivityLargeMem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fotini\diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943A538A-A7C0-45F9-A481-68AF34D59D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF329AA-31BE-4BD8-A1C1-24ACE1275784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="465" yWindow="0" windowWidth="7500" windowHeight="6000" xr2:uid="{F4F57719-118F-45E0-A924-38EBED8242CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{F4F57719-118F-45E0-A924-38EBED8242CA}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -6786,19 +6786,19 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B2:B8"/>
+      <selection activeCell="A8" activeCellId="2" sqref="A6:XFD6 A7:XFD7 A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>10</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>7.1689999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>6.8879999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>178.36099999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>19.847000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>20.271000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6945,16 +6945,16 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>10</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>7.8879999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>6.9539999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>14.205</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>24.195</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>27.215</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7101,16 +7101,16 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>10</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>7.1660000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>7.1050000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>14.651999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>21.936</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7257,16 +7257,16 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>10</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>7.0350000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>7.056</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>16.667999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>21.234999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>27.015999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
